--- a/InecoBankTestcases.xlsx
+++ b/InecoBankTestcases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="201">
   <si>
     <t>Project Name</t>
   </si>
@@ -431,6 +431,195 @@
   </si>
   <si>
     <t>25.3.Click on Mortgage Loans button from opened option</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Check Customer Sign In with valid Data</t>
+  </si>
+  <si>
+    <t>26.2.Click on the Sign in button</t>
+  </si>
+  <si>
+    <t>New window is opened with login form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1.Go to site www.inecobank.am/en/Individual  </t>
+  </si>
+  <si>
+    <t>26.3.Enter User name</t>
+  </si>
+  <si>
+    <t>26.4.Enter Password</t>
+  </si>
+  <si>
+    <t>User name is accepted</t>
+  </si>
+  <si>
+    <t>Password is accepted</t>
+  </si>
+  <si>
+    <t>User should Login into an application</t>
+  </si>
+  <si>
+    <t>User name = darbinyan.sandro</t>
+  </si>
+  <si>
+    <t>Password = account1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1.Go to site www.inecobank.am/en/Individual  </t>
+  </si>
+  <si>
+    <t>27.2.Click on the Sign in button</t>
+  </si>
+  <si>
+    <t>27.3.Enter User name</t>
+  </si>
+  <si>
+    <t>27.4.Enter Password</t>
+  </si>
+  <si>
+    <t>Check Customer Sign In with invalid Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User name = </t>
+  </si>
+  <si>
+    <t>User name =  armen.vardanyan</t>
+  </si>
+  <si>
+    <t>Password = account0</t>
+  </si>
+  <si>
+    <t>User should not Login into an application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password = </t>
+  </si>
+  <si>
+    <t>User name is empty</t>
+  </si>
+  <si>
+    <t>Password is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1.Go to site www.inecobank.am/en/Individual  </t>
+  </si>
+  <si>
+    <t>28.2.Click on the Sign in button</t>
+  </si>
+  <si>
+    <t>28.3.Enter User name</t>
+  </si>
+  <si>
+    <t>28.4.Enter Password</t>
+  </si>
+  <si>
+    <t>26.5.Click Log In button</t>
+  </si>
+  <si>
+    <t>27.5.Click Log In button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1.Go to site www.inecobank.am/en/Individual  </t>
+  </si>
+  <si>
+    <t>29.2.Click on the Sign in button</t>
+  </si>
+  <si>
+    <t>29.3.Enter User name</t>
+  </si>
+  <si>
+    <t>29.4.Enter Password</t>
+  </si>
+  <si>
+    <t>29.3.Click Log In button</t>
+  </si>
+  <si>
+    <t>Verify the messages for invalid login.</t>
+  </si>
+  <si>
+    <t>User should not Login into an application and "Username or password is wrong" text is displayed</t>
+  </si>
+  <si>
+    <t>Check Customer Sign In without inputing Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1.Go to site www.inecobank.am/en/Individual  </t>
+  </si>
+  <si>
+    <t>30.2.Click on the Sign in button</t>
+  </si>
+  <si>
+    <t>30.3.Enter User name</t>
+  </si>
+  <si>
+    <t>30.4.Enter Password</t>
+  </si>
+  <si>
+    <t>30.5.Click Log In button</t>
+  </si>
+  <si>
+    <t>Check Customer Sign In with valid user name and invalid password</t>
+  </si>
+  <si>
+    <t>Password = account20</t>
+  </si>
+  <si>
+    <t>Check Customer Sign In with invalid user name and valid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1.Go to site www.inecobank.am/en/Individual  </t>
+  </si>
+  <si>
+    <t>31.2.Click on the Sign in button</t>
+  </si>
+  <si>
+    <t>31.3.Enter User name</t>
+  </si>
+  <si>
+    <t>31.4.Enter Password</t>
+  </si>
+  <si>
+    <t>31.5.Click Log In button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1.Go to site www.inecobank.am/en/Individual  </t>
+  </si>
+  <si>
+    <t>32.2.Click on the Sign in button</t>
+  </si>
+  <si>
+    <t>32.3.Enter User name</t>
+  </si>
+  <si>
+    <t>32.4.Enter Password</t>
+  </si>
+  <si>
+    <t>32.5.Click Log In button</t>
+  </si>
+  <si>
+    <t>Verify if the ‘Enter’ key of the keyboard is working correctly on the login page.</t>
+  </si>
+  <si>
+    <t>User should  Login into an application</t>
+  </si>
+  <si>
+    <t>User should  Sign out from an application</t>
+  </si>
+  <si>
+    <t>31.7.Navigate to back</t>
+  </si>
+  <si>
+    <t>User should not  go to user page</t>
+  </si>
+  <si>
+    <t>31.6.Click on Sign out button</t>
+  </si>
+  <si>
+    <t>Logout functionality check</t>
   </si>
 </sst>
 </file>
@@ -623,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -722,9 +911,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -758,6 +944,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1054,24 +1246,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1087,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1287,8 @@
         <v>43841.659722222219</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="6" spans="1:8">
+    <row r="4" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1110,19 +1302,22 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="I6" s="42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1135,20 +1330,21 @@
       <c r="D7" s="9">
         <v>43841.662499999999</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="46" t="s">
+      <c r="G7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
@@ -1157,18 +1353,19 @@
       <c r="D8" s="9">
         <v>43841.662499999999</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" spans="1:8" ht="45">
+      <c r="G8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" ht="45">
       <c r="A9" s="15">
         <v>2</v>
       </c>
@@ -1181,20 +1378,21 @@
       <c r="D9" s="18">
         <v>43841.664583333331</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="45">
+    <row r="10" spans="1:9" ht="45">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="s">
@@ -1203,18 +1401,19 @@
       <c r="D10" s="18">
         <v>43841.664583333331</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="18"/>
       <c r="F10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:8" ht="45">
+      <c r="G10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" ht="45">
       <c r="A11" s="6">
         <v>3</v>
       </c>
@@ -1227,20 +1426,21 @@
       <c r="D11" s="9">
         <v>43841.665277777778</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="46" t="s">
+      <c r="G11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="45" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45">
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="14" t="s">
@@ -1249,18 +1449,19 @@
       <c r="D12" s="9">
         <v>43841.665277777778</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" spans="1:8" ht="45">
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" ht="45">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -1273,20 +1474,21 @@
       <c r="D13" s="18">
         <v>43841.666666666664</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E13" s="18"/>
       <c r="F13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="48" t="s">
+      <c r="G13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="17" t="s">
@@ -1295,18 +1497,19 @@
       <c r="D14" s="18">
         <v>43841.666666666664</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="E14" s="18"/>
       <c r="F14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="49"/>
-    </row>
-    <row r="15" spans="1:8" ht="30">
+      <c r="G14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="1:9" ht="30">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -1319,18 +1522,19 @@
       <c r="D15" s="9">
         <v>43841.67083333333</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:8" ht="45">
+      <c r="G15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" ht="45">
       <c r="A16" s="11"/>
       <c r="B16" s="29"/>
       <c r="C16" s="8" t="s">
@@ -1339,20 +1543,21 @@
       <c r="D16" s="9">
         <v>43841.67083333333</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="50" t="s">
+      <c r="G16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45">
+    <row r="17" spans="1:9" ht="45">
       <c r="A17" s="11"/>
       <c r="B17" s="29"/>
       <c r="C17" s="14" t="s">
@@ -1361,18 +1566,19 @@
       <c r="D17" s="9">
         <v>43841.67083333333</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" ht="45">
+      <c r="G17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" ht="45">
       <c r="A18" s="15">
         <v>6</v>
       </c>
@@ -1385,18 +1591,19 @@
       <c r="D18" s="18">
         <v>43841.67291666667</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E18" s="18"/>
       <c r="F18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" ht="45">
+      <c r="G18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="45">
       <c r="A19" s="30"/>
       <c r="B19" s="27"/>
       <c r="C19" s="31" t="s">
@@ -1405,20 +1612,21 @@
       <c r="D19" s="18">
         <v>43841.67291666667</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E19" s="18"/>
       <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="51" t="s">
+      <c r="G19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="60">
+    <row r="20" spans="1:9" ht="60">
       <c r="A20" s="30"/>
       <c r="B20" s="27"/>
       <c r="C20" s="31" t="s">
@@ -1427,18 +1635,19 @@
       <c r="D20" s="18">
         <v>43841.67291666667</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>24</v>
-      </c>
+      <c r="E20" s="18"/>
       <c r="F20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" ht="45">
+      <c r="G20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" ht="45">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -1451,18 +1660,19 @@
       <c r="D21" s="9">
         <v>43841.678472222222</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="45"/>
-    </row>
-    <row r="22" spans="1:8" ht="45">
+      <c r="G21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="44"/>
+    </row>
+    <row r="22" spans="1:9" ht="45">
       <c r="A22" s="32"/>
       <c r="B22" s="29"/>
       <c r="C22" s="14" t="s">
@@ -1471,20 +1681,21 @@
       <c r="D22" s="9">
         <v>43841.678472222222</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="52" t="s">
+      <c r="G22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75">
+    <row r="23" spans="1:9" ht="75">
       <c r="A23" s="32"/>
       <c r="B23" s="29"/>
       <c r="C23" s="14" t="s">
@@ -1493,18 +1704,19 @@
       <c r="D23" s="9">
         <v>43841.678472222222</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>31</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" ht="45">
+      <c r="G23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" ht="45">
       <c r="A24" s="34">
         <v>8</v>
       </c>
@@ -1517,18 +1729,19 @@
       <c r="D24" s="18">
         <v>43841.679861111108</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="E24" s="18"/>
       <c r="F24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="1:8" ht="45">
+      <c r="G24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" ht="45">
       <c r="A25" s="30"/>
       <c r="B25" s="27"/>
       <c r="C25" s="31" t="s">
@@ -1537,20 +1750,21 @@
       <c r="D25" s="18">
         <v>43841.679861111108</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="51" t="s">
+      <c r="G25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="75">
+    <row r="26" spans="1:9" ht="75">
       <c r="A26" s="30"/>
       <c r="B26" s="27"/>
       <c r="C26" s="31" t="s">
@@ -1559,18 +1773,19 @@
       <c r="D26" s="18">
         <v>43841.679861111108</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>32</v>
-      </c>
+      <c r="E26" s="18"/>
       <c r="F26" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="1:8" ht="45">
+      <c r="G26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" ht="45">
       <c r="A27" s="6">
         <v>9</v>
       </c>
@@ -1583,18 +1798,19 @@
       <c r="D27" s="9">
         <v>43841.681250000001</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="45"/>
-    </row>
-    <row r="28" spans="1:8" ht="45">
+      <c r="G27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="44"/>
+    </row>
+    <row r="28" spans="1:9" ht="45">
       <c r="A28" s="35"/>
       <c r="B28" s="29"/>
       <c r="C28" s="14" t="s">
@@ -1603,20 +1819,21 @@
       <c r="D28" s="9">
         <v>43841.681250000001</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="52" t="s">
+      <c r="G28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="90">
+    <row r="29" spans="1:9" ht="90">
       <c r="A29" s="35"/>
       <c r="B29" s="29"/>
       <c r="C29" s="14" t="s">
@@ -1625,18 +1842,19 @@
       <c r="D29" s="9">
         <v>43841.681250000001</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" ht="45">
+      <c r="G29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:9" ht="45">
       <c r="A30" s="15">
         <v>10</v>
       </c>
@@ -1649,18 +1867,19 @@
       <c r="D30" s="18">
         <v>43841.683333333334</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E30" s="18"/>
       <c r="F30" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="1:8" ht="45">
+      <c r="G30" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" ht="45">
       <c r="A31" s="30"/>
       <c r="B31" s="27"/>
       <c r="C31" s="31" t="s">
@@ -1669,20 +1888,21 @@
       <c r="D31" s="18">
         <v>43841.683333333334</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E31" s="18"/>
       <c r="F31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="51" t="s">
+      <c r="G31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="75">
+    <row r="32" spans="1:9" ht="75">
       <c r="A32" s="30"/>
       <c r="B32" s="27"/>
       <c r="C32" s="31" t="s">
@@ -1691,18 +1911,19 @@
       <c r="D32" s="18">
         <v>43841.683333333334</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>30</v>
-      </c>
+      <c r="E32" s="18"/>
       <c r="F32" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:8" ht="45">
+      <c r="G32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" ht="45">
       <c r="A33" s="36">
         <v>11</v>
       </c>
@@ -1715,18 +1936,19 @@
       <c r="D33" s="9">
         <v>43841.686805555553</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="45"/>
-    </row>
-    <row r="34" spans="1:8" ht="45">
+      <c r="G33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="35"/>
       <c r="B34" s="29"/>
       <c r="C34" s="14" t="s">
@@ -1735,20 +1957,21 @@
       <c r="D34" s="9">
         <v>43841.686805555553</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="52" t="s">
+      <c r="G34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="75">
+    <row r="35" spans="1:9" ht="75">
       <c r="A35" s="37"/>
       <c r="B35" s="38"/>
       <c r="C35" s="14" t="s">
@@ -1757,22 +1980,23 @@
       <c r="D35" s="9">
         <v>43841.686805555553</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="29"/>
-    </row>
-    <row r="36" spans="1:8" ht="45">
+      <c r="G35" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="29"/>
+    </row>
+    <row r="36" spans="1:9" ht="45">
       <c r="A36" s="26">
         <v>12</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -1781,18 +2005,19 @@
       <c r="D36" s="18">
         <v>43841.691666666666</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E36" s="18"/>
       <c r="F36" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="37" spans="1:8" ht="45">
+      <c r="G36" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9" ht="45">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
       <c r="C37" s="22" t="s">
@@ -1801,20 +2026,21 @@
       <c r="D37" s="18">
         <v>43841.691666666666</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E37" s="18"/>
       <c r="F37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="51" t="s">
+      <c r="G37" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="90">
+    <row r="38" spans="1:9" ht="90">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="22" t="s">
@@ -1823,18 +2049,19 @@
       <c r="D38" s="18">
         <v>43841.691666666666</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="E38" s="18"/>
       <c r="F38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" ht="45">
+      <c r="G38" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="6">
         <v>13</v>
       </c>
@@ -1847,18 +2074,19 @@
       <c r="D39" s="9">
         <v>43841.693749999999</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="45">
+      <c r="G39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="44"/>
+    </row>
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="32"/>
       <c r="B40" s="29"/>
       <c r="C40" s="14" t="s">
@@ -1867,20 +2095,21 @@
       <c r="D40" s="9">
         <v>43841.693749999999</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="52" t="s">
+      <c r="G40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="60">
+    <row r="41" spans="1:9" ht="60">
       <c r="A41" s="32"/>
       <c r="B41" s="29"/>
       <c r="C41" s="14" t="s">
@@ -1889,18 +2118,19 @@
       <c r="D41" s="9">
         <v>43841.693749999999</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="29"/>
-    </row>
-    <row r="42" spans="1:8" ht="30">
+      <c r="G41" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="15">
         <v>14</v>
       </c>
@@ -1913,18 +2143,19 @@
       <c r="D42" s="18">
         <v>43841.694444444445</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="G42" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="44"/>
-    </row>
-    <row r="43" spans="1:8" ht="45">
+      <c r="H42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="43"/>
+    </row>
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
       <c r="C43" s="22" t="s">
@@ -1933,20 +2164,21 @@
       <c r="D43" s="18">
         <v>43841.694444444445</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E43" s="18"/>
       <c r="F43" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="51" t="s">
+      <c r="G43" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="45">
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="26"/>
       <c r="B44" s="27"/>
       <c r="C44" s="22" t="s">
@@ -1955,18 +2187,19 @@
       <c r="D44" s="18">
         <v>43841.694444444445</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="E44" s="18"/>
       <c r="F44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="27"/>
-    </row>
-    <row r="45" spans="1:8" ht="45">
+      <c r="G44" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" spans="1:9" ht="45">
       <c r="A45" s="6">
         <v>15</v>
       </c>
@@ -1979,18 +2212,19 @@
       <c r="D45" s="9">
         <v>43841.697916666664</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="45"/>
-    </row>
-    <row r="46" spans="1:8" ht="45">
+      <c r="G45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="32"/>
       <c r="B46" s="29"/>
       <c r="C46" s="14" t="s">
@@ -1999,20 +2233,21 @@
       <c r="D46" s="9">
         <v>43841.697916666664</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="52" t="s">
+      <c r="G46" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45">
+    <row r="47" spans="1:9" ht="45">
       <c r="A47" s="32"/>
       <c r="B47" s="29"/>
       <c r="C47" s="14" t="s">
@@ -2021,18 +2256,19 @@
       <c r="D47" s="9">
         <v>43841.697916666664</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="E47" s="9"/>
       <c r="F47" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="29"/>
-    </row>
-    <row r="48" spans="1:8" ht="45">
+      <c r="G47" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" spans="1:9" ht="45">
       <c r="A48" s="15">
         <v>16</v>
       </c>
@@ -2045,18 +2281,19 @@
       <c r="D48" s="18">
         <v>43841.711805555555</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E48" s="18"/>
       <c r="F48" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="44"/>
-    </row>
-    <row r="49" spans="1:8" ht="45">
+      <c r="G48" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="43"/>
+    </row>
+    <row r="49" spans="1:9" ht="45">
       <c r="A49" s="30"/>
       <c r="B49" s="27"/>
       <c r="C49" s="31" t="s">
@@ -2065,20 +2302,21 @@
       <c r="D49" s="18">
         <v>43841.711805555555</v>
       </c>
-      <c r="E49" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E49" s="18"/>
       <c r="F49" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="51" t="s">
+      <c r="G49" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="75">
+    <row r="50" spans="1:9" ht="75">
       <c r="A50" s="30"/>
       <c r="B50" s="27"/>
       <c r="C50" s="31" t="s">
@@ -2087,18 +2325,19 @@
       <c r="D50" s="18">
         <v>43841.711805555555</v>
       </c>
-      <c r="E50" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="E50" s="18"/>
       <c r="F50" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="27"/>
-    </row>
-    <row r="51" spans="1:8" ht="45">
+      <c r="G50" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="1:9" ht="45">
       <c r="A51" s="6">
         <v>17</v>
       </c>
@@ -2111,18 +2350,19 @@
       <c r="D51" s="9">
         <v>43841.71597222222</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="45"/>
-    </row>
-    <row r="52" spans="1:8" ht="45">
+      <c r="G51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="44"/>
+    </row>
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="32"/>
       <c r="B52" s="29"/>
       <c r="C52" s="14" t="s">
@@ -2131,20 +2371,21 @@
       <c r="D52" s="9">
         <v>43841.71597222222</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="52" t="s">
+      <c r="G52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45">
+    <row r="53" spans="1:9" ht="45">
       <c r="A53" s="32"/>
       <c r="B53" s="29"/>
       <c r="C53" s="14" t="s">
@@ -2153,18 +2394,19 @@
       <c r="D53" s="9">
         <v>43841.71597222222</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="E53" s="9"/>
       <c r="F53" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="29"/>
-    </row>
-    <row r="54" spans="1:8" ht="45">
+      <c r="G53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" spans="1:9" ht="45">
       <c r="A54" s="15">
         <v>18</v>
       </c>
@@ -2177,18 +2419,19 @@
       <c r="D54" s="18">
         <v>43841.716666666667</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E54" s="18"/>
       <c r="F54" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="44"/>
-    </row>
-    <row r="55" spans="1:8" ht="45">
+      <c r="G54" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="43"/>
+    </row>
+    <row r="55" spans="1:9" ht="45">
       <c r="A55" s="30"/>
       <c r="B55" s="27"/>
       <c r="C55" s="31" t="s">
@@ -2197,20 +2440,21 @@
       <c r="D55" s="18">
         <v>43841.716666666667</v>
       </c>
-      <c r="E55" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E55" s="18"/>
       <c r="F55" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="51" t="s">
+      <c r="G55" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45">
+    <row r="56" spans="1:9" ht="45">
       <c r="A56" s="30"/>
       <c r="B56" s="27"/>
       <c r="C56" s="31" t="s">
@@ -2219,18 +2463,19 @@
       <c r="D56" s="18">
         <v>43841.716666666667</v>
       </c>
-      <c r="E56" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="E56" s="18"/>
       <c r="F56" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="1:8" ht="30">
+      <c r="G56" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" spans="1:9" ht="30">
       <c r="A57" s="6">
         <v>19</v>
       </c>
@@ -2243,18 +2488,19 @@
       <c r="D57" s="9">
         <v>43841.719444444447</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="45"/>
-    </row>
-    <row r="58" spans="1:8" ht="45">
+      <c r="G57" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="44"/>
+    </row>
+    <row r="58" spans="1:9" ht="45">
       <c r="A58" s="32"/>
       <c r="B58" s="29"/>
       <c r="C58" s="14" t="s">
@@ -2263,20 +2509,21 @@
       <c r="D58" s="9">
         <v>43841.719444444447</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="52" t="s">
+      <c r="G58" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="75">
+    <row r="59" spans="1:9" ht="75">
       <c r="A59" s="32"/>
       <c r="B59" s="29"/>
       <c r="C59" s="14" t="s">
@@ -2285,18 +2532,19 @@
       <c r="D59" s="9">
         <v>43841.719444444447</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="E59" s="9"/>
       <c r="F59" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="29"/>
-    </row>
-    <row r="60" spans="1:8" ht="45">
+      <c r="G59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="29"/>
+    </row>
+    <row r="60" spans="1:9" ht="45">
       <c r="A60" s="15">
         <v>20</v>
       </c>
@@ -2309,18 +2557,19 @@
       <c r="D60" s="18">
         <v>43841.722916666666</v>
       </c>
-      <c r="E60" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E60" s="18"/>
       <c r="F60" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="44"/>
-    </row>
-    <row r="61" spans="1:8" ht="45">
+      <c r="G60" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="43"/>
+    </row>
+    <row r="61" spans="1:9" ht="45">
       <c r="A61" s="30"/>
       <c r="B61" s="27"/>
       <c r="C61" s="31" t="s">
@@ -2329,20 +2578,21 @@
       <c r="D61" s="18">
         <v>43841.722916666666</v>
       </c>
-      <c r="E61" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E61" s="18"/>
       <c r="F61" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="51" t="s">
+      <c r="G61" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="60">
+    <row r="62" spans="1:9" ht="60">
       <c r="A62" s="39"/>
       <c r="B62" s="21"/>
       <c r="C62" s="31" t="s">
@@ -2351,18 +2601,19 @@
       <c r="D62" s="18">
         <v>43841.722916666666</v>
       </c>
-      <c r="E62" s="23" t="s">
-        <v>53</v>
-      </c>
+      <c r="E62" s="18"/>
       <c r="F62" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="27"/>
-    </row>
-    <row r="63" spans="1:8" ht="45">
+      <c r="G62" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="27"/>
+    </row>
+    <row r="63" spans="1:9" ht="45">
       <c r="A63" s="6">
         <v>21</v>
       </c>
@@ -2375,18 +2626,19 @@
       <c r="D63" s="9">
         <v>43842.038888888892</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E63" s="9"/>
       <c r="F63" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="45"/>
-    </row>
-    <row r="64" spans="1:8" ht="45">
+      <c r="G63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="44"/>
+    </row>
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="32"/>
       <c r="B64" s="29"/>
       <c r="C64" s="14" t="s">
@@ -2395,20 +2647,21 @@
       <c r="D64" s="9">
         <v>43842.038888888892</v>
       </c>
-      <c r="E64" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E64" s="9"/>
       <c r="F64" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="52" t="s">
+      <c r="G64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="90">
+    <row r="65" spans="1:9" ht="90">
       <c r="A65" s="32"/>
       <c r="B65" s="29"/>
       <c r="C65" s="14" t="s">
@@ -2417,18 +2670,19 @@
       <c r="D65" s="9">
         <v>43842.038888888892</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="E65" s="9"/>
       <c r="F65" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="29"/>
-    </row>
-    <row r="66" spans="1:8" ht="45">
+      <c r="G65" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" spans="1:9" ht="45">
       <c r="A66" s="15">
         <v>22</v>
       </c>
@@ -2441,18 +2695,19 @@
       <c r="D66" s="18">
         <v>43842.038888888892</v>
       </c>
-      <c r="E66" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E66" s="18"/>
       <c r="F66" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="44"/>
-    </row>
-    <row r="67" spans="1:8" ht="45">
+      <c r="G66" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="43"/>
+    </row>
+    <row r="67" spans="1:9" ht="45">
       <c r="A67" s="30"/>
       <c r="B67" s="27"/>
       <c r="C67" s="31" t="s">
@@ -2461,20 +2716,21 @@
       <c r="D67" s="18">
         <v>43842.038888888892</v>
       </c>
-      <c r="E67" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E67" s="18"/>
       <c r="F67" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="51" t="s">
+      <c r="G67" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="60">
+    <row r="68" spans="1:9" ht="60">
       <c r="A68" s="39"/>
       <c r="B68" s="21"/>
       <c r="C68" s="31" t="s">
@@ -2483,18 +2739,19 @@
       <c r="D68" s="18">
         <v>43842.038888888892</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>55</v>
-      </c>
+      <c r="E68" s="18"/>
       <c r="F68" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="27"/>
-    </row>
-    <row r="69" spans="1:8" ht="45">
+      <c r="G68" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="27"/>
+    </row>
+    <row r="69" spans="1:9" ht="45">
       <c r="A69" s="6">
         <v>23</v>
       </c>
@@ -2507,18 +2764,19 @@
       <c r="D69" s="9">
         <v>43842.038888888892</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="45"/>
-    </row>
-    <row r="70" spans="1:8" ht="45">
+      <c r="G69" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="44"/>
+    </row>
+    <row r="70" spans="1:9" ht="45">
       <c r="A70" s="32"/>
       <c r="B70" s="29"/>
       <c r="C70" s="14" t="s">
@@ -2527,20 +2785,21 @@
       <c r="D70" s="9">
         <v>43842.038888888892</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="52" t="s">
+      <c r="G70" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="60">
+    <row r="71" spans="1:9" ht="60">
       <c r="A71" s="32"/>
       <c r="B71" s="29"/>
       <c r="C71" s="14" t="s">
@@ -2549,18 +2808,19 @@
       <c r="D71" s="9">
         <v>43842.038888888892</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="E71" s="9"/>
       <c r="F71" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="29"/>
-    </row>
-    <row r="72" spans="1:8" ht="45">
+      <c r="G71" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="29"/>
+    </row>
+    <row r="72" spans="1:9" ht="45">
       <c r="A72" s="15">
         <v>24</v>
       </c>
@@ -2573,18 +2833,19 @@
       <c r="D72" s="18">
         <v>43842.039583333331</v>
       </c>
-      <c r="E72" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E72" s="18"/>
       <c r="F72" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="44"/>
-    </row>
-    <row r="73" spans="1:8" ht="45">
+      <c r="G72" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="43"/>
+    </row>
+    <row r="73" spans="1:9" ht="45">
       <c r="A73" s="30"/>
       <c r="B73" s="27"/>
       <c r="C73" s="31" t="s">
@@ -2593,20 +2854,21 @@
       <c r="D73" s="18">
         <v>43842.039583333331</v>
       </c>
-      <c r="E73" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="E73" s="18"/>
       <c r="F73" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="51" t="s">
+      <c r="G73" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="50" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="90">
+    <row r="74" spans="1:9" ht="90">
       <c r="A74" s="30"/>
       <c r="B74" s="27"/>
       <c r="C74" s="31" t="s">
@@ -2615,18 +2877,19 @@
       <c r="D74" s="18">
         <v>43842.039583333331</v>
       </c>
-      <c r="E74" s="23" t="s">
-        <v>80</v>
-      </c>
+      <c r="E74" s="18"/>
       <c r="F74" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="27"/>
-    </row>
-    <row r="75" spans="1:8" ht="45">
+      <c r="G74" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="27"/>
+    </row>
+    <row r="75" spans="1:9" ht="45">
       <c r="A75" s="6">
         <v>25</v>
       </c>
@@ -2639,18 +2902,19 @@
       <c r="D75" s="9">
         <v>43842.039583333331</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="E75" s="9"/>
       <c r="F75" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="45"/>
-    </row>
-    <row r="76" spans="1:8" ht="45">
+      <c r="G75" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="44"/>
+    </row>
+    <row r="76" spans="1:9" ht="45">
       <c r="A76" s="32"/>
       <c r="B76" s="29"/>
       <c r="C76" s="14" t="s">
@@ -2659,38 +2923,1002 @@
       <c r="D76" s="9">
         <v>43842.039583333331</v>
       </c>
-      <c r="E76" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="E76" s="9"/>
       <c r="F76" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="52" t="s">
+      <c r="G76" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="51" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60">
-      <c r="A77" s="40"/>
-      <c r="B77" s="38"/>
+    <row r="77" spans="1:9" ht="60">
+      <c r="A77" s="32"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="14" t="s">
         <v>137</v>
       </c>
       <c r="D77" s="9">
         <v>43842.039583333331</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="9"/>
+      <c r="F77" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F77" s="41" t="s">
+      <c r="G77" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="38"/>
+      <c r="H77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="29"/>
+    </row>
+    <row r="78" spans="1:9" ht="45">
+      <c r="A78" s="15">
+        <v>26</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="18">
+        <v>43846.972222222219</v>
+      </c>
+      <c r="E78" s="18"/>
+      <c r="F78" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="43"/>
+    </row>
+    <row r="79" spans="1:9" ht="45">
+      <c r="A79" s="30"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" s="18">
+        <v>43846.972222222219</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="30">
+      <c r="A80" s="30"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="18">
+        <v>43846.972222222219</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="50"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75">
+      <c r="A81" s="30"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="18">
+        <v>43846.972222222219</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="50"/>
+    </row>
+    <row r="82" spans="1:9" ht="30">
+      <c r="A82" s="39"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="18">
+        <v>43846.972222222219</v>
+      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="21"/>
+    </row>
+    <row r="83" spans="1:9" ht="45">
+      <c r="A83" s="6">
+        <v>27</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="9">
+        <v>43846.986111111109</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="44"/>
+    </row>
+    <row r="84" spans="1:9" ht="45">
+      <c r="A84" s="35"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="9">
+        <v>43846.986111111109</v>
+      </c>
+      <c r="E84" s="9"/>
+      <c r="F84" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="30">
+      <c r="A85" s="35"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" s="9">
+        <v>43846.986111111109</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="51"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75">
+      <c r="A86" s="35"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="9">
+        <v>43846.986111111109</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="51"/>
+    </row>
+    <row r="87" spans="1:9" ht="30">
+      <c r="A87" s="37"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="9">
+        <v>43846.986111111109</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="38"/>
+    </row>
+    <row r="88" spans="1:9" ht="45">
+      <c r="A88" s="15">
+        <v>28</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="18">
+        <v>43847</v>
+      </c>
+      <c r="E88" s="18"/>
+      <c r="F88" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="43"/>
+    </row>
+    <row r="89" spans="1:9" ht="45">
+      <c r="A89" s="30"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="18">
+        <v>43847</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75">
+      <c r="A90" s="30"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="18">
+        <v>43847</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="50"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75">
+      <c r="A91" s="30"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="18">
+        <v>43847</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="50"/>
+    </row>
+    <row r="92" spans="1:9" ht="30">
+      <c r="A92" s="39"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="18">
+        <v>43847</v>
+      </c>
+      <c r="E92" s="18"/>
+      <c r="F92" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="21"/>
+    </row>
+    <row r="93" spans="1:9" ht="45">
+      <c r="A93" s="6">
+        <v>29</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D93" s="9">
+        <v>43847.010416666664</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="44"/>
+    </row>
+    <row r="94" spans="1:9" ht="45">
+      <c r="A94" s="35"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="9">
+        <v>43847.010416666664</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="51"/>
+    </row>
+    <row r="95" spans="1:9" ht="30">
+      <c r="A95" s="35"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="9">
+        <v>43847.010416666664</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75">
+      <c r="A96" s="35"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="9">
+        <v>43847.010416666664</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="51"/>
+    </row>
+    <row r="97" spans="1:9" ht="75">
+      <c r="A97" s="37"/>
+      <c r="B97" s="38"/>
+      <c r="C97" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="9">
+        <v>43847.010416666664</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="38"/>
+    </row>
+    <row r="98" spans="1:9" ht="45">
+      <c r="A98" s="15">
+        <v>30</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" s="18">
+        <v>43847.020833333336</v>
+      </c>
+      <c r="E98" s="18"/>
+      <c r="F98" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="43"/>
+    </row>
+    <row r="99" spans="1:9" ht="45">
+      <c r="A99" s="30"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" s="18">
+        <v>43847.020833333336</v>
+      </c>
+      <c r="E99" s="18"/>
+      <c r="F99" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="30">
+      <c r="A100" s="30"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" s="18">
+        <v>43847.020833333336</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="50"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75">
+      <c r="A101" s="30"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" s="18">
+        <v>43847.020833333336</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="50"/>
+    </row>
+    <row r="102" spans="1:9" ht="30">
+      <c r="A102" s="39"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D102" s="18">
+        <v>43847.020833333336</v>
+      </c>
+      <c r="E102" s="18"/>
+      <c r="F102" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="21"/>
+    </row>
+    <row r="103" spans="1:9" ht="45">
+      <c r="A103" s="6">
+        <v>31</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="9">
+        <v>43847.03125</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="44"/>
+    </row>
+    <row r="104" spans="1:9" ht="45">
+      <c r="A104" s="35"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D104" s="9">
+        <v>43847.03125</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="30">
+      <c r="A105" s="35"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D105" s="9">
+        <v>43847.03125</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="51"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75">
+      <c r="A106" s="35"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="9">
+        <v>43847.03125</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="51"/>
+    </row>
+    <row r="107" spans="1:9" ht="30">
+      <c r="A107" s="37"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="9">
+        <v>43847.03125</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="38"/>
+    </row>
+    <row r="108" spans="1:9" ht="60">
+      <c r="A108" s="15">
+        <v>32</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C108" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="18">
+        <v>43847.041666666664</v>
+      </c>
+      <c r="E108" s="18"/>
+      <c r="F108" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="43"/>
+    </row>
+    <row r="109" spans="1:9" ht="45">
+      <c r="A109" s="30"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="18">
+        <v>43847.041666666664</v>
+      </c>
+      <c r="E109" s="18"/>
+      <c r="F109" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="30">
+      <c r="A110" s="30"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="18">
+        <v>43847.041666666664</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="50"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75">
+      <c r="A111" s="30"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" s="18">
+        <v>43847.041666666664</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="50"/>
+    </row>
+    <row r="112" spans="1:9" ht="30">
+      <c r="A112" s="39"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D112" s="18">
+        <v>43847.041666666664</v>
+      </c>
+      <c r="E112" s="18"/>
+      <c r="F112" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="21"/>
+    </row>
+    <row r="113" spans="1:9" ht="45">
+      <c r="A113" s="6">
+        <v>33</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113" s="9">
+        <v>43847.470138888886</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="44"/>
+    </row>
+    <row r="114" spans="1:9" ht="45">
+      <c r="A114" s="35"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D114" s="9">
+        <v>43847.470138888886</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="51"/>
+    </row>
+    <row r="115" spans="1:9" ht="30">
+      <c r="A115" s="35"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115" s="9">
+        <v>43847.470138888886</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.75">
+      <c r="A116" s="35"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" s="9">
+        <v>43847.470138888886</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="51"/>
+    </row>
+    <row r="117" spans="1:9" ht="30">
+      <c r="A117" s="35"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" s="9">
+        <v>43847.470138888886</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="51"/>
+    </row>
+    <row r="118" spans="1:9" ht="30">
+      <c r="A118" s="35"/>
+      <c r="B118" s="29"/>
+      <c r="C118" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="9">
+        <v>43847.470138888886</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="51"/>
+    </row>
+    <row r="119" spans="1:9" ht="30">
+      <c r="A119" s="37"/>
+      <c r="B119" s="38"/>
+      <c r="C119" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D119" s="9">
+        <v>43847.470138888886</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
